--- a/Config/DataTables/Datas/test/test_excel_bean.xlsx
+++ b/Config/DataTables/Datas/test/test_excel_bean.xlsx
@@ -1,28 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CF3C-C940-46D4-B36A-7000D1DCD2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25140" windowHeight="14325" xr2:uid="{7AB0535F-222E-413C-B0CA-19C827C106C3}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
@@ -436,111 +411,4 @@
     </a:ext>
   </a:extLst>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6F1EC-913E-4B3D-B77A-7DE02DCBAE91}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>